--- a/test/data_origin/test_read_excel.xlsx
+++ b/test/data_origin/test_read_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\software test\code\InterfaceTest\data\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githublily\Interface-Test\test\data_origin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DB8A2E-7B5E-4A0B-9F30-F0F1A459765C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE521CF-8CEF-4CAB-A03A-BA98FCD13D2B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9600" xr2:uid="{232C1C4E-8B37-436D-A9DC-09E57F09C4BF}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7810" xr2:uid="{232C1C4E-8B37-436D-A9DC-09E57F09C4BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>早上好</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,23 +43,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>下</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>左</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>右</t>
+    <t>我</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -424,15 +408,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9AA39E0-36C2-4494-9953-CC856E7F5736}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1">
         <v>1</v>
       </c>
@@ -445,14 +429,8 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1">
-        <v>6</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2</v>
       </c>
@@ -465,33 +443,13 @@
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>2</v>
-      </c>
-      <c r="E3">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E4">
-        <v>9</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/test/data_origin/test_read_excel.xlsx
+++ b/test/data_origin/test_read_excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githublily\Interface-Test\test\data_origin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE521CF-8CEF-4CAB-A03A-BA98FCD13D2B}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D5391D-2189-41EF-9F69-10A841422C89}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7810" xr2:uid="{232C1C4E-8B37-436D-A9DC-09E57F09C4BF}"/>
   </bookViews>
@@ -25,25 +25,53 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>早上好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中午好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>晚上好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>你</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>user</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>user_mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>password_mean</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已注册账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未注册账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abc123</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>abcdef</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正确密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1234a5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11111a1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -90,8 +118,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -411,45 +442,56 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" style="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1">
-        <v>4</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>2</v>
+      <c r="A2" s="1" t="s">
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>5</v>
+        <v>4</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>3</v>
+      <c r="A3" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/test/data_origin/test_read_excel.xlsx
+++ b/test/data_origin/test_read_excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githublily\Interface-Test\test\data_origin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D5391D-2189-41EF-9F69-10A841422C89}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A114B69C-AE0D-40CE-A0D9-EFCF1C5AEBC9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7810" xr2:uid="{232C1C4E-8B37-436D-A9DC-09E57F09C4BF}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7810" xr2:uid="{232C1C4E-8B37-436D-A9DC-09E57F09C4BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,10 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
-    <t>user</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>password</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -47,18 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>未注册账户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abc123</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>abcdef</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>正确密码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -67,11 +51,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1234a5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>11111a1</t>
+    <t>email</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>985404955@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1111abc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>错误账号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>111111</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>123456</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -79,7 +79,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -90,6 +90,15 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -113,21 +122,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -442,61 +458,64 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" style="1"/>
+    <col min="1" max="1" width="20.58203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
     <col min="3" max="3" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{B0B4BCAE-EE26-4A86-AA9E-68DEE3FEC78C}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
--- a/test/data_origin/test_read_excel.xlsx
+++ b/test/data_origin/test_read_excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\githublily\Interface-Test\test\data_origin\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A114B69C-AE0D-40CE-A0D9-EFCF1C5AEBC9}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA5E712-D57D-40E3-9AD7-9F6BBAA3215B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="14400" windowHeight="7810" xr2:uid="{232C1C4E-8B37-436D-A9DC-09E57F09C4BF}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7810" xr2:uid="{232C1C4E-8B37-436D-A9DC-09E57F09C4BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,10 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>985404955@qq.com</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1111abc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -72,6 +68,10 @@
   </si>
   <si>
     <t>123456</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9854045@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -458,14 +458,15 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.58203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="8.6640625" style="1"/>
+    <col min="2" max="2" width="20.58203125" customWidth="1"/>
+    <col min="3" max="3" width="20.58203125" style="1" customWidth="1"/>
+    <col min="4" max="6" width="20.58203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
@@ -484,13 +485,13 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -498,13 +499,13 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>5</v>
